--- a/movesDB/data/Test.xlsx
+++ b/movesDB/data/Test.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5385" yWindow="225" windowWidth="21660" windowHeight="11850" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="5380" yWindow="220" windowWidth="25600" windowHeight="16780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>One</t>
   </si>
@@ -35,18 +34,6 @@
   </si>
   <si>
     <t>"Hi Mom"</t>
-  </si>
-  <si>
-    <t>Column_1</t>
-  </si>
-  <si>
-    <t>Column_2</t>
-  </si>
-  <si>
-    <t>"Hi"</t>
-  </si>
-  <si>
-    <t>"MOM"</t>
   </si>
 </sst>
 </file>
@@ -90,11 +77,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -422,13 +404,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -461,71 +443,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>3.141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>